--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H100_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5487804878048781</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5449101796407185</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7031250000000001</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4610778443113773</v>
+        <v>0.4880239520958084</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.05423829491274491</v>
+        <v>0.06286138826075122</v>
       </c>
       <c r="J2" t="n">
-        <v>652.4358645782567</v>
+        <v>762.0307281684399</v>
       </c>
       <c r="K2" t="n">
-        <v>553949.9695855968</v>
+        <v>735555.6732430143</v>
       </c>
       <c r="L2" t="n">
-        <v>744.2781533711686</v>
+        <v>857.6454239620324</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8972771082829755</v>
+        <v>0.8636006680695197</v>
       </c>
     </row>
   </sheetData>
